--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Agrn-Musk.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Agrn-Musk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.6076090210126</v>
+        <v>17.306265</v>
       </c>
       <c r="H2">
-        <v>12.6076090210126</v>
+        <v>51.918795</v>
       </c>
       <c r="I2">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988408</v>
       </c>
       <c r="J2">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988407</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>6.0505883932103</v>
+        <v>0.1421586666666667</v>
       </c>
       <c r="N2">
-        <v>6.0505883932103</v>
+        <v>0.426476</v>
       </c>
       <c r="O2">
-        <v>0.3907333068782736</v>
+        <v>0.008210963676175792</v>
       </c>
       <c r="P2">
-        <v>0.3907333068782736</v>
+        <v>0.008210963676175792</v>
       </c>
       <c r="Q2">
-        <v>76.28345280867231</v>
+        <v>2.46023555738</v>
       </c>
       <c r="R2">
-        <v>76.28345280867231</v>
+        <v>22.14212001642</v>
       </c>
       <c r="S2">
-        <v>0.1846786633150325</v>
+        <v>0.004485787843867116</v>
       </c>
       <c r="T2">
-        <v>0.1846786633150325</v>
+        <v>0.004485787843867115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.6076090210126</v>
+        <v>17.306265</v>
       </c>
       <c r="H3">
-        <v>12.6076090210126</v>
+        <v>51.918795</v>
       </c>
       <c r="I3">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988408</v>
       </c>
       <c r="J3">
-        <v>0.4726463295143816</v>
+        <v>0.5463168539988407</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.43462437646858</v>
+        <v>6.072364333333334</v>
       </c>
       <c r="N3">
-        <v>9.43462437646858</v>
+        <v>18.217093</v>
       </c>
       <c r="O3">
-        <v>0.6092666931217263</v>
+        <v>0.3507345991533317</v>
       </c>
       <c r="P3">
-        <v>0.6092666931217263</v>
+        <v>0.3507345991533317</v>
       </c>
       <c r="Q3">
-        <v>118.9480553986306</v>
+        <v>105.089946329215</v>
       </c>
       <c r="R3">
-        <v>118.9480553986306</v>
+        <v>945.8095169629352</v>
       </c>
       <c r="S3">
-        <v>0.2879676661993491</v>
+        <v>0.1916122227979927</v>
       </c>
       <c r="T3">
-        <v>0.2879676661993491</v>
+        <v>0.1916122227979926</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.27971176858846</v>
+        <v>17.306265</v>
       </c>
       <c r="H4">
-        <v>3.27971176858846</v>
+        <v>51.918795</v>
       </c>
       <c r="I4">
-        <v>0.1229530299285847</v>
+        <v>0.5463168539988408</v>
       </c>
       <c r="J4">
-        <v>0.1229530299285847</v>
+        <v>0.5463168539988407</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.0505883932103</v>
+        <v>11.09875133333333</v>
       </c>
       <c r="N4">
-        <v>6.0505883932103</v>
+        <v>33.296254</v>
       </c>
       <c r="O4">
-        <v>0.3907333068782736</v>
+        <v>0.6410544371704925</v>
       </c>
       <c r="P4">
-        <v>0.3907333068782736</v>
+        <v>0.6410544371704925</v>
       </c>
       <c r="Q4">
-        <v>19.84418596009656</v>
+        <v>192.07793174377</v>
       </c>
       <c r="R4">
-        <v>19.84418596009656</v>
+        <v>1728.70138569393</v>
       </c>
       <c r="S4">
-        <v>0.04804184397469924</v>
+        <v>0.350218843356981</v>
       </c>
       <c r="T4">
-        <v>0.04804184397469924</v>
+        <v>0.3502188433569809</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.27971176858846</v>
+        <v>3.344413333333334</v>
       </c>
       <c r="H5">
-        <v>3.27971176858846</v>
+        <v>10.03324</v>
       </c>
       <c r="I5">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="J5">
-        <v>0.1229530299285847</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>9.43462437646858</v>
+        <v>0.1421586666666667</v>
       </c>
       <c r="N5">
-        <v>9.43462437646858</v>
+        <v>0.426476</v>
       </c>
       <c r="O5">
-        <v>0.6092666931217263</v>
+        <v>0.008210963676175792</v>
       </c>
       <c r="P5">
-        <v>0.6092666931217263</v>
+        <v>0.008210963676175792</v>
       </c>
       <c r="Q5">
-        <v>30.94284859971556</v>
+        <v>0.475437340248889</v>
       </c>
       <c r="R5">
-        <v>30.94284859971556</v>
+        <v>4.278936062240001</v>
       </c>
       <c r="S5">
-        <v>0.07491118595388543</v>
+        <v>0.0008668727004662049</v>
       </c>
       <c r="T5">
-        <v>0.07491118595388543</v>
+        <v>0.0008668727004662048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.7871887405295</v>
+        <v>3.344413333333334</v>
       </c>
       <c r="H6">
-        <v>10.7871887405295</v>
+        <v>10.03324</v>
       </c>
       <c r="I6">
-        <v>0.4044006405570338</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="J6">
-        <v>0.4044006405570338</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.0505883932103</v>
+        <v>6.072364333333334</v>
       </c>
       <c r="N6">
-        <v>6.0505883932103</v>
+        <v>18.217093</v>
       </c>
       <c r="O6">
-        <v>0.3907333068782736</v>
+        <v>0.3507345991533317</v>
       </c>
       <c r="P6">
-        <v>0.3907333068782736</v>
+        <v>0.3507345991533317</v>
       </c>
       <c r="Q6">
-        <v>65.26883898881663</v>
+        <v>20.30849624125778</v>
       </c>
       <c r="R6">
-        <v>65.26883898881663</v>
+        <v>182.77646617132</v>
       </c>
       <c r="S6">
-        <v>0.1580127995885419</v>
+        <v>0.03702881429096596</v>
       </c>
       <c r="T6">
-        <v>0.1580127995885419</v>
+        <v>0.03702881429096595</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.7871887405295</v>
+        <v>3.344413333333334</v>
       </c>
       <c r="H7">
-        <v>10.7871887405295</v>
+        <v>10.03324</v>
       </c>
       <c r="I7">
-        <v>0.4044006405570338</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="J7">
-        <v>0.4044006405570338</v>
+        <v>0.1055750256186672</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.43462437646858</v>
+        <v>11.09875133333333</v>
       </c>
       <c r="N7">
-        <v>9.43462437646858</v>
+        <v>33.296254</v>
       </c>
       <c r="O7">
-        <v>0.6092666931217263</v>
+        <v>0.6410544371704925</v>
       </c>
       <c r="P7">
-        <v>0.6092666931217263</v>
+        <v>0.6410544371704925</v>
       </c>
       <c r="Q7">
-        <v>101.773073844967</v>
+        <v>37.11881194255112</v>
       </c>
       <c r="R7">
-        <v>101.773073844967</v>
+        <v>334.0693074829601</v>
       </c>
       <c r="S7">
-        <v>0.2463878409684919</v>
+        <v>0.06767933862723501</v>
       </c>
       <c r="T7">
-        <v>0.2463878409684919</v>
+        <v>0.06767933862723501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.02739433333333</v>
+      </c>
+      <c r="H8">
+        <v>33.082183</v>
+      </c>
+      <c r="I8">
+        <v>0.3481081203824922</v>
+      </c>
+      <c r="J8">
+        <v>0.3481081203824921</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1421586666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.426476</v>
+      </c>
+      <c r="O8">
+        <v>0.008210963676175792</v>
+      </c>
+      <c r="P8">
+        <v>0.008210963676175792</v>
+      </c>
+      <c r="Q8">
+        <v>1.567639675234223</v>
+      </c>
+      <c r="R8">
+        <v>14.108757077108</v>
+      </c>
+      <c r="S8">
+        <v>0.002858303131842473</v>
+      </c>
+      <c r="T8">
+        <v>0.002858303131842473</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.02739433333333</v>
+      </c>
+      <c r="H9">
+        <v>33.082183</v>
+      </c>
+      <c r="I9">
+        <v>0.3481081203824922</v>
+      </c>
+      <c r="J9">
+        <v>0.3481081203824921</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.072364333333334</v>
+      </c>
+      <c r="N9">
+        <v>18.217093</v>
+      </c>
+      <c r="O9">
+        <v>0.3507345991533317</v>
+      </c>
+      <c r="P9">
+        <v>0.3507345991533317</v>
+      </c>
+      <c r="Q9">
+        <v>66.96235603933545</v>
+      </c>
+      <c r="R9">
+        <v>602.6612043540191</v>
+      </c>
+      <c r="S9">
+        <v>0.1220935620643731</v>
+      </c>
+      <c r="T9">
+        <v>0.1220935620643731</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.02739433333333</v>
+      </c>
+      <c r="H10">
+        <v>33.082183</v>
+      </c>
+      <c r="I10">
+        <v>0.3481081203824922</v>
+      </c>
+      <c r="J10">
+        <v>0.3481081203824921</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>11.09875133333333</v>
+      </c>
+      <c r="N10">
+        <v>33.296254</v>
+      </c>
+      <c r="O10">
+        <v>0.6410544371704925</v>
+      </c>
+      <c r="P10">
+        <v>0.6410544371704925</v>
+      </c>
+      <c r="Q10">
+        <v>122.3903075602758</v>
+      </c>
+      <c r="R10">
+        <v>1101.512768042482</v>
+      </c>
+      <c r="S10">
+        <v>0.2231562551862766</v>
+      </c>
+      <c r="T10">
+        <v>0.2231562551862765</v>
       </c>
     </row>
   </sheetData>
